--- a/Jogos_do_Dia/2023-01-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,7 +680,7 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -760,7 +760,7 @@
         <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.39</v>
@@ -790,10 +790,10 @@
         <v>1.39</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="W3" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
         <v>1.05</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
@@ -873,10 +873,10 @@
         <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -900,10 +900,10 @@
         <v>1.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X4" t="n">
         <v>1.41</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -977,10 +977,10 @@
         <v>5.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L5" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="M5" t="n">
         <v>2.59</v>
@@ -1052,111 +1052,111 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44949.5</v>
+        <v>44949.58333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>10.65</v>
       </c>
       <c r="K6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.44</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="W6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.53</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7">
@@ -1173,210 +1173,210 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
       </c>
       <c r="J7" t="n">
-        <v>10.65</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="L7" t="n">
-        <v>3.61</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="N7" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.7</v>
       </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.64</v>
-      </c>
       <c r="Z7" t="n">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.66</v>
+        <v>3.54</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.79</v>
+        <v>1.45</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.56</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>44949.58333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y8" t="n">
-        <v>1.7</v>
+        <v>1.23</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.48</v>
+        <v>2.73</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1426,7 +1426,7 @@
         <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
         <v>1.43</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
@@ -1536,7 +1536,7 @@
         <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1625,10 +1625,10 @@
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1646,7 +1646,7 @@
         <v>1.95</v>
       </c>
       <c r="N11" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1747,16 +1747,16 @@
         <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="L12" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="M12" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="N12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1816,7 +1816,7 @@
         <v>3.9</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>2.58</v>
       </c>
       <c r="M13" t="n">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
         <v>1.53</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G17" t="n">
         <v>5.25</v>
@@ -2306,7 +2306,7 @@
         <v>1.57</v>
       </c>
       <c r="N17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2395,10 +2395,10 @@
         <v>2.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>4.19</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>1.12</v>
@@ -2410,13 +2410,13 @@
         <v>1.5</v>
       </c>
       <c r="L18" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.55</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
         <v>3.9</v>
@@ -2523,10 +2523,10 @@
         <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>4.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.08</v>
@@ -2743,10 +2743,10 @@
         <v>2.98</v>
       </c>
       <c r="M21" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.48</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.42</v>
